--- a/Level_1/SetMaxGradeH5PQuiz/SetMaxGradeH5PQuizTC.xlsx
+++ b/Level_1/SetMaxGradeH5PQuiz/SetMaxGradeH5PQuizTC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIEU\Desktop\ASS3Testing\ASS3_Moodle\Level_1\SetMaxGradeH5PQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294A1F57-E946-4B9F-8DF6-04A14DE50293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EA2A15-10D9-48E9-B5C6-DC127166E0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="735" windowWidth="20700" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>TC_ID</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Recalculating grades</t>
+  </si>
+  <si>
+    <t>TC-363-024</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -607,6 +610,26 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
